--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.7582308904775</v>
+        <v>24.11008933333333</v>
       </c>
       <c r="H2">
-        <v>19.7582308904775</v>
+        <v>72.33026799999999</v>
       </c>
       <c r="I2">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="J2">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.986405348307</v>
+        <v>23.66111866666667</v>
       </c>
       <c r="N2">
-        <v>22.986405348307</v>
+        <v>70.983356</v>
       </c>
       <c r="O2">
-        <v>0.09682269173287546</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="P2">
-        <v>0.09682269173287546</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="Q2">
-        <v>454.1707042139565</v>
+        <v>570.4716847799342</v>
       </c>
       <c r="R2">
-        <v>454.1707042139565</v>
+        <v>5134.245163019407</v>
       </c>
       <c r="S2">
-        <v>0.02044488333815805</v>
+        <v>0.01899895131795758</v>
       </c>
       <c r="T2">
-        <v>0.02044488333815805</v>
+        <v>0.01899895131795758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.7582308904775</v>
+        <v>24.11008933333333</v>
       </c>
       <c r="H3">
-        <v>19.7582308904775</v>
+        <v>72.33026799999999</v>
       </c>
       <c r="I3">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="J3">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>203.809550316743</v>
+        <v>0.1622346666666667</v>
       </c>
       <c r="N3">
-        <v>203.809550316743</v>
+        <v>0.486704</v>
       </c>
       <c r="O3">
-        <v>0.8584808700411867</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="P3">
-        <v>0.8584808700411867</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="Q3">
-        <v>4026.9161528426</v>
+        <v>3.911492306296889</v>
       </c>
       <c r="R3">
-        <v>4026.9161528426</v>
+        <v>35.203430756672</v>
       </c>
       <c r="S3">
-        <v>0.1812750804786083</v>
+        <v>0.0001302680814676503</v>
       </c>
       <c r="T3">
-        <v>0.1812750804786083</v>
+        <v>0.0001302680814676503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.7582308904775</v>
+        <v>24.11008933333333</v>
       </c>
       <c r="H4">
-        <v>19.7582308904775</v>
+        <v>72.33026799999999</v>
       </c>
       <c r="I4">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="J4">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6112568066327</v>
+        <v>231.2048796666667</v>
       </c>
       <c r="N4">
-        <v>10.6112568066327</v>
+        <v>693.614639</v>
       </c>
       <c r="O4">
-        <v>0.04469643822593798</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="P4">
-        <v>0.04469643822593798</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="Q4">
-        <v>209.6596620235998</v>
+        <v>5574.370303065916</v>
       </c>
       <c r="R4">
-        <v>209.6596620235998</v>
+        <v>50169.33272759325</v>
       </c>
       <c r="S4">
-        <v>0.009438009301389945</v>
+        <v>0.1856484604614034</v>
       </c>
       <c r="T4">
-        <v>0.009438009301389945</v>
+        <v>0.1856484604614033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.1447147027262</v>
+        <v>24.11008933333333</v>
       </c>
       <c r="H5">
-        <v>27.1447147027262</v>
+        <v>72.33026799999999</v>
       </c>
       <c r="I5">
-        <v>0.2900979834313374</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="J5">
-        <v>0.2900979834313374</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.986405348307</v>
+        <v>11.99098133333333</v>
       </c>
       <c r="N5">
-        <v>22.986405348307</v>
+        <v>35.972944</v>
       </c>
       <c r="O5">
-        <v>0.09682269173287546</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="P5">
-        <v>0.09682269173287546</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="Q5">
-        <v>623.9594152210132</v>
+        <v>289.103631140999</v>
       </c>
       <c r="R5">
-        <v>623.9594152210132</v>
+        <v>2601.932680268992</v>
       </c>
       <c r="S5">
-        <v>0.02808806762210119</v>
+        <v>0.009628288240127928</v>
       </c>
       <c r="T5">
-        <v>0.02808806762210119</v>
+        <v>0.009628288240127925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.1447147027262</v>
+        <v>27.64911833333333</v>
       </c>
       <c r="H6">
-        <v>27.1447147027262</v>
+        <v>82.947355</v>
       </c>
       <c r="I6">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="J6">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>203.809550316743</v>
+        <v>23.66111866666667</v>
       </c>
       <c r="N6">
-        <v>203.809550316743</v>
+        <v>70.983356</v>
       </c>
       <c r="O6">
-        <v>0.8584808700411867</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="P6">
-        <v>0.8584808700411867</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="Q6">
-        <v>5532.35209703891</v>
+        <v>654.209069913709</v>
       </c>
       <c r="R6">
-        <v>5532.35209703891</v>
+        <v>5887.881629223381</v>
       </c>
       <c r="S6">
-        <v>0.2490435692133283</v>
+        <v>0.02178773566272899</v>
       </c>
       <c r="T6">
-        <v>0.2490435692133283</v>
+        <v>0.02178773566272899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.1447147027262</v>
+        <v>27.64911833333333</v>
       </c>
       <c r="H7">
-        <v>27.1447147027262</v>
+        <v>82.947355</v>
       </c>
       <c r="I7">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="J7">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>10.6112568066327</v>
+        <v>0.1622346666666667</v>
       </c>
       <c r="N7">
-        <v>10.6112568066327</v>
+        <v>0.486704</v>
       </c>
       <c r="O7">
-        <v>0.04469643822593798</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="P7">
-        <v>0.04469643822593798</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="Q7">
-        <v>288.0395386534061</v>
+        <v>4.485645496435556</v>
       </c>
       <c r="R7">
-        <v>288.0395386534061</v>
+        <v>40.37080946792</v>
       </c>
       <c r="S7">
-        <v>0.01296634659590795</v>
+        <v>0.0001493896413969614</v>
       </c>
       <c r="T7">
-        <v>0.01296634659590795</v>
+        <v>0.0001493896413969614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.3935285362951</v>
+        <v>27.64911833333333</v>
       </c>
       <c r="H8">
-        <v>20.3935285362951</v>
+        <v>82.947355</v>
       </c>
       <c r="I8">
-        <v>0.2179474556361601</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="J8">
-        <v>0.2179474556361601</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.986405348307</v>
+        <v>231.2048796666667</v>
       </c>
       <c r="N8">
-        <v>22.986405348307</v>
+        <v>693.614639</v>
       </c>
       <c r="O8">
-        <v>0.09682269173287546</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="P8">
-        <v>0.09682269173287546</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="Q8">
-        <v>468.7739134175451</v>
+        <v>6392.611077147761</v>
       </c>
       <c r="R8">
-        <v>468.7739134175451</v>
+        <v>57533.49969432985</v>
       </c>
       <c r="S8">
-        <v>0.02110225931102448</v>
+        <v>0.2128990971676683</v>
       </c>
       <c r="T8">
-        <v>0.02110225931102448</v>
+        <v>0.2128990971676683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.3935285362951</v>
+        <v>27.64911833333333</v>
       </c>
       <c r="H9">
-        <v>20.3935285362951</v>
+        <v>82.947355</v>
       </c>
       <c r="I9">
-        <v>0.2179474556361601</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="J9">
-        <v>0.2179474556361601</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>203.809550316743</v>
+        <v>11.99098133333333</v>
       </c>
       <c r="N9">
-        <v>203.809550316743</v>
+        <v>35.972944</v>
       </c>
       <c r="O9">
-        <v>0.8584808700411867</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="P9">
-        <v>0.8584808700411867</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="Q9">
-        <v>4156.395880353971</v>
+        <v>331.5400618181244</v>
       </c>
       <c r="R9">
-        <v>4156.395880353971</v>
+        <v>2983.86055636312</v>
       </c>
       <c r="S9">
-        <v>0.1871037213377937</v>
+        <v>0.01104158832504556</v>
       </c>
       <c r="T9">
-        <v>0.1871037213377937</v>
+        <v>0.01104158832504556</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.3935285362951</v>
+        <v>24.21819066666667</v>
       </c>
       <c r="H10">
-        <v>20.3935285362951</v>
+        <v>72.654572</v>
       </c>
       <c r="I10">
-        <v>0.2179474556361601</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="J10">
-        <v>0.2179474556361601</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.6112568066327</v>
+        <v>23.66111866666667</v>
       </c>
       <c r="N10">
-        <v>10.6112568066327</v>
+        <v>70.983356</v>
       </c>
       <c r="O10">
-        <v>0.04469643822593798</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="P10">
-        <v>0.04469643822593798</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="Q10">
-        <v>216.4009684920196</v>
+        <v>573.0294832559591</v>
       </c>
       <c r="R10">
-        <v>216.4009684920196</v>
+        <v>5157.265349303632</v>
       </c>
       <c r="S10">
-        <v>0.009741474987341991</v>
+        <v>0.01908413606949506</v>
       </c>
       <c r="T10">
-        <v>0.009741474987341991</v>
+        <v>0.01908413606949506</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.2743752147574</v>
+        <v>24.21819066666667</v>
       </c>
       <c r="H11">
-        <v>26.2743752147574</v>
+        <v>72.654572</v>
       </c>
       <c r="I11">
-        <v>0.2807965878143463</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="J11">
-        <v>0.2807965878143463</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>22.986405348307</v>
+        <v>0.1622346666666667</v>
       </c>
       <c r="N11">
-        <v>22.986405348307</v>
+        <v>0.486704</v>
       </c>
       <c r="O11">
-        <v>0.09682269173287546</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="P11">
-        <v>0.09682269173287546</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="Q11">
-        <v>603.9534389599244</v>
+        <v>3.929030090076445</v>
       </c>
       <c r="R11">
-        <v>603.9534389599244</v>
+        <v>35.361270810688</v>
       </c>
       <c r="S11">
-        <v>0.02718748146159174</v>
+        <v>0.0001308521586605108</v>
       </c>
       <c r="T11">
-        <v>0.02718748146159174</v>
+        <v>0.0001308521586605108</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.2743752147574</v>
+        <v>24.21819066666667</v>
       </c>
       <c r="H12">
-        <v>26.2743752147574</v>
+        <v>72.654572</v>
       </c>
       <c r="I12">
-        <v>0.2807965878143463</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="J12">
-        <v>0.2807965878143463</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>203.809550316743</v>
+        <v>231.2048796666667</v>
       </c>
       <c r="N12">
-        <v>203.809550316743</v>
+        <v>693.614639</v>
       </c>
       <c r="O12">
-        <v>0.8584808700411867</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="P12">
-        <v>0.8584808700411867</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="Q12">
-        <v>5354.968597373084</v>
+        <v>5599.363858831057</v>
       </c>
       <c r="R12">
-        <v>5354.968597373084</v>
+        <v>50394.27472947951</v>
       </c>
       <c r="S12">
-        <v>0.2410584990114565</v>
+        <v>0.1864808441921187</v>
       </c>
       <c r="T12">
-        <v>0.2410584990114565</v>
+        <v>0.1864808441921187</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.2743752147574</v>
+        <v>24.21819066666667</v>
       </c>
       <c r="H13">
-        <v>26.2743752147574</v>
+        <v>72.654572</v>
       </c>
       <c r="I13">
-        <v>0.2807965878143463</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="J13">
-        <v>0.2807965878143463</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.6112568066327</v>
+        <v>11.99098133333333</v>
       </c>
       <c r="N13">
-        <v>10.6112568066327</v>
+        <v>35.972944</v>
       </c>
       <c r="O13">
-        <v>0.04469643822593798</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="P13">
-        <v>0.04469643822593798</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="Q13">
-        <v>278.8041428376159</v>
+        <v>290.3998722111075</v>
       </c>
       <c r="R13">
-        <v>278.8041428376159</v>
+        <v>2613.598849899968</v>
       </c>
       <c r="S13">
-        <v>0.0125506073412981</v>
+        <v>0.009671458167127597</v>
       </c>
       <c r="T13">
-        <v>0.0125506073412981</v>
+        <v>0.009671458167127596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>36.47324633333334</v>
+      </c>
+      <c r="H14">
+        <v>109.419739</v>
+      </c>
+      <c r="I14">
+        <v>0.3243489305148018</v>
+      </c>
+      <c r="J14">
+        <v>0.3243489305148018</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.66111866666667</v>
+      </c>
+      <c r="N14">
+        <v>70.983356</v>
+      </c>
+      <c r="O14">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="P14">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="Q14">
+        <v>862.9978096515649</v>
+      </c>
+      <c r="R14">
+        <v>7766.980286864085</v>
+      </c>
+      <c r="S14">
+        <v>0.02874122206328096</v>
+      </c>
+      <c r="T14">
+        <v>0.02874122206328096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>36.47324633333334</v>
+      </c>
+      <c r="H15">
+        <v>109.419739</v>
+      </c>
+      <c r="I15">
+        <v>0.3243489305148018</v>
+      </c>
+      <c r="J15">
+        <v>0.3243489305148018</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1622346666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.486704</v>
+      </c>
+      <c r="O15">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="P15">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="Q15">
+        <v>5.917224961139556</v>
+      </c>
+      <c r="R15">
+        <v>53.255024650256</v>
+      </c>
+      <c r="S15">
+        <v>0.0001970668693529663</v>
+      </c>
+      <c r="T15">
+        <v>0.0001970668693529663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>36.47324633333334</v>
+      </c>
+      <c r="H16">
+        <v>109.419739</v>
+      </c>
+      <c r="I16">
+        <v>0.3243489305148018</v>
+      </c>
+      <c r="J16">
+        <v>0.3243489305148018</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>231.2048796666667</v>
+      </c>
+      <c r="N16">
+        <v>693.614639</v>
+      </c>
+      <c r="O16">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="P16">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="Q16">
+        <v>8432.792529551025</v>
+      </c>
+      <c r="R16">
+        <v>75895.13276595922</v>
+      </c>
+      <c r="S16">
+        <v>0.2808451655320644</v>
+      </c>
+      <c r="T16">
+        <v>0.2808451655320644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>36.47324633333334</v>
+      </c>
+      <c r="H17">
+        <v>109.419739</v>
+      </c>
+      <c r="I17">
+        <v>0.3243489305148018</v>
+      </c>
+      <c r="J17">
+        <v>0.3243489305148018</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.99098133333333</v>
+      </c>
+      <c r="N17">
+        <v>35.972944</v>
+      </c>
+      <c r="O17">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="P17">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="Q17">
+        <v>437.3500159490684</v>
+      </c>
+      <c r="R17">
+        <v>3936.150143541616</v>
+      </c>
+      <c r="S17">
+        <v>0.0145654760501035</v>
+      </c>
+      <c r="T17">
+        <v>0.01456547605010349</v>
       </c>
     </row>
   </sheetData>
